--- a/T4-Plan-Evaluativo/Cronograma.xlsx
+++ b/T4-Plan-Evaluativo/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CiberOwl\Documents\MHSA\Proyecto-Final-HESM-650\Taller-03-Diseño-de-un-Plan-Evaluativo\Trabajos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E635F9B8-3204-4A89-9BD5-0AD0646AC35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9797CF4-224E-44D7-ACC2-FB5FB783786C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BB835D63-197C-45A7-9EC5-3630ECB23CA3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
   <si>
     <t>Actividad</t>
   </si>
@@ -156,13 +156,64 @@
   </si>
   <si>
     <t>Semana 23-24</t>
+  </si>
+  <si>
+    <t>Resultados Esperados</t>
+  </si>
+  <si>
+    <t>Objetivos del programa y criterios de evaluación claramente definidos.</t>
+  </si>
+  <si>
+    <t>Cuestionarios y guías validadas y listas para aplicar.</t>
+  </si>
+  <si>
+    <t>Participantes reclutados con consentimiento informado firmado.</t>
+  </si>
+  <si>
+    <t>Datos de satisfacción y adherencia recolectados.</t>
+  </si>
+  <si>
+    <t>Datos clínicos actualizados y organizados.</t>
+  </si>
+  <si>
+    <t>Opiniones cualitativas recopiladas para análisis.</t>
+  </si>
+  <si>
+    <t>Base de datos completa y depurada para análisis.</t>
+  </si>
+  <si>
+    <t>Resultados numéricos sobre adherencia, glucosa y satisfacción.</t>
+  </si>
+  <si>
+    <t>Identificación de barreras y facilitadores del programa.</t>
+  </si>
+  <si>
+    <t>Borrador preliminar con hallazgos principales.</t>
+  </si>
+  <si>
+    <t>Documento revisado y validado por el equipo.</t>
+  </si>
+  <si>
+    <t>Informe completo y presentación formal preparada.</t>
+  </si>
+  <si>
+    <t>Resultados compartidos con dirección y personal médico.</t>
+  </si>
+  <si>
+    <t>Resultados presentados ante el equipo institucional.</t>
+  </si>
+  <si>
+    <t>Resumen difundido entre comunidad y pacientes.</t>
+  </si>
+  <si>
+    <t>Cronograma del Programa de Telemedicina para el Seguimiento de Pacientes con Diabetes Tipo II</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,8 +240,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,12 +264,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.749992370372631"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -404,17 +481,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -486,13 +552,35 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -505,68 +593,115 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -902,462 +1037,649 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE47B389-8185-42EE-8B08-BDA3C6884C4A}">
-  <dimension ref="A8:N25"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="2" customWidth="1"/>
-    <col min="3" max="6" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="13" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+    </row>
+    <row r="2" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24"/>
+      <c r="B2" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="24"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="24"/>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14" t="s">
+      <c r="G4" s="30"/>
+      <c r="H4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14" t="s">
+      <c r="I4" s="30"/>
+      <c r="J4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14" t="s">
+      <c r="K4" s="30"/>
+      <c r="L4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14" t="s">
+      <c r="M4" s="30"/>
+      <c r="N4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14" t="s">
+      <c r="O4" s="30"/>
+      <c r="P4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="15"/>
-    </row>
-    <row r="10" spans="1:14" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="Q4" s="31"/>
+      <c r="R4" s="26"/>
+    </row>
+    <row r="5" spans="1:18" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="D5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="E5" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="G5" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="H5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="I5" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="J5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="K5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="L5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="M5" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="N5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="O5" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="P5" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="Q5" s="34" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="R5" s="28"/>
+    </row>
+    <row r="6" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="D6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="25" t="s">
+      <c r="E6" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="24"/>
+    </row>
+    <row r="7" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="E7" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="24"/>
+    </row>
+    <row r="8" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="24"/>
+    </row>
+    <row r="9" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="24"/>
+    </row>
+    <row r="10" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="24"/>
+    </row>
+    <row r="11" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="24"/>
+    </row>
+    <row r="12" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="11"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="4"/>
+      <c r="L12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="24"/>
+    </row>
+    <row r="13" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="11"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="M13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="24"/>
+    </row>
+    <row r="14" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="N14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="24"/>
+    </row>
+    <row r="15" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="24"/>
+    </row>
+    <row r="16" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="24"/>
+    </row>
+    <row r="17" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17" s="24"/>
+    </row>
+    <row r="18" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="11"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" s="24"/>
+    </row>
+    <row r="19" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="11"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="26" t="s">
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19" s="24"/>
+    </row>
+    <row r="20" spans="1:18" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N25" s="11" t="s">
-        <v>12</v>
-      </c>
+      <c r="E20" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="24"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="A11:A13"/>
+  <mergeCells count="12">
+    <mergeCell ref="B2:Q3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="C6:C8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>